--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4580303333333333</v>
+        <v>0.213427</v>
       </c>
       <c r="H2">
-        <v>1.374091</v>
+        <v>0.640281</v>
       </c>
       <c r="I2">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="J2">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N2">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q2">
-        <v>3.991512820995445</v>
+        <v>1.581046940435</v>
       </c>
       <c r="R2">
-        <v>35.923615388959</v>
+        <v>14.229422463915</v>
       </c>
       <c r="S2">
-        <v>0.02437121260839253</v>
+        <v>0.009352949186627447</v>
       </c>
       <c r="T2">
-        <v>0.02437121260839253</v>
+        <v>0.009352949186627449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4580303333333333</v>
+        <v>0.213427</v>
       </c>
       <c r="H3">
-        <v>1.374091</v>
+        <v>0.640281</v>
       </c>
       <c r="I3">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="J3">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P3">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q3">
-        <v>7.551784892147111</v>
+        <v>3.518882215609334</v>
       </c>
       <c r="R3">
-        <v>67.966064029324</v>
+        <v>31.669939940484</v>
       </c>
       <c r="S3">
-        <v>0.04610937342134469</v>
+        <v>0.020816539796893</v>
       </c>
       <c r="T3">
-        <v>0.0461093734213447</v>
+        <v>0.02081653979689301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4580303333333333</v>
+        <v>0.213427</v>
       </c>
       <c r="H4">
-        <v>1.374091</v>
+        <v>0.640281</v>
       </c>
       <c r="I4">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="J4">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N4">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O4">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P4">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q4">
-        <v>1.711151705380556</v>
+        <v>1.166286069966667</v>
       </c>
       <c r="R4">
-        <v>15.400365348425</v>
+        <v>10.4965746297</v>
       </c>
       <c r="S4">
-        <v>0.01044787875857122</v>
+        <v>0.006899361474029629</v>
       </c>
       <c r="T4">
-        <v>0.01044787875857122</v>
+        <v>0.006899361474029629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4580303333333333</v>
+        <v>0.213427</v>
       </c>
       <c r="H5">
-        <v>1.374091</v>
+        <v>0.640281</v>
       </c>
       <c r="I5">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="J5">
-        <v>0.1330121184019856</v>
+        <v>0.05929937785206704</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N5">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q5">
-        <v>8.530251428346556</v>
+        <v>3.757906369427334</v>
       </c>
       <c r="R5">
-        <v>76.772262855119</v>
+        <v>33.821157324846</v>
       </c>
       <c r="S5">
-        <v>0.05208365361367713</v>
+        <v>0.02223052739451695</v>
       </c>
       <c r="T5">
-        <v>0.05208365361367714</v>
+        <v>0.02223052739451696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.345574</v>
       </c>
       <c r="I6">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="J6">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N6">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q6">
-        <v>9.718353089125111</v>
+        <v>8.261231454156666</v>
       </c>
       <c r="R6">
-        <v>87.46517780212599</v>
+        <v>74.35108308740999</v>
       </c>
       <c r="S6">
-        <v>0.05933791521166373</v>
+        <v>0.0488707046157889</v>
       </c>
       <c r="T6">
-        <v>0.05933791521166374</v>
+        <v>0.04887070461578891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.345574</v>
       </c>
       <c r="I7">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="J7">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>49.462564</v>
       </c>
       <c r="O7">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P7">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q7">
         <v>18.38674089908178</v>
@@ -883,10 +883,10 @@
         <v>165.480668091736</v>
       </c>
       <c r="S7">
-        <v>0.112264996186382</v>
+        <v>0.1087698593499581</v>
       </c>
       <c r="T7">
-        <v>0.112264996186382</v>
+        <v>0.1087698593499581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,10 +915,10 @@
         <v>3.345574</v>
       </c>
       <c r="I8">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="J8">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N8">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O8">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P8">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q8">
-        <v>4.166234008938889</v>
+        <v>6.094037387088889</v>
       </c>
       <c r="R8">
-        <v>37.49610608045001</v>
+        <v>54.84633648379999</v>
       </c>
       <c r="S8">
-        <v>0.02543801795501764</v>
+        <v>0.03605030348255719</v>
       </c>
       <c r="T8">
-        <v>0.02543801795501764</v>
+        <v>0.03605030348255719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>3.345574</v>
       </c>
       <c r="I9">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="J9">
-        <v>0.3238518300539079</v>
+        <v>0.3098490455878768</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N9">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q9">
-        <v>20.76906652626289</v>
+        <v>19.63568158978712</v>
       </c>
       <c r="R9">
-        <v>186.921598736366</v>
+        <v>176.721134308084</v>
       </c>
       <c r="S9">
-        <v>0.1268109007008446</v>
+        <v>0.1161581781395726</v>
       </c>
       <c r="T9">
-        <v>0.1268109007008446</v>
+        <v>0.1161581781395726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.870301666666667</v>
+        <v>0.3440983333333333</v>
       </c>
       <c r="H10">
-        <v>5.610905000000001</v>
+        <v>1.032295</v>
       </c>
       <c r="I10">
-        <v>0.5431360515441066</v>
+        <v>0.09560560325825622</v>
       </c>
       <c r="J10">
-        <v>0.5431360515441066</v>
+        <v>0.09560560325825622</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N10">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O10">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P10">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q10">
-        <v>16.29877442242723</v>
+        <v>2.549047763991667</v>
       </c>
       <c r="R10">
-        <v>146.688969801845</v>
+        <v>22.941429875925</v>
       </c>
       <c r="S10">
-        <v>0.09951637750374082</v>
+        <v>0.01507932092410923</v>
       </c>
       <c r="T10">
-        <v>0.09951637750374083</v>
+        <v>0.01507932092410923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.870301666666667</v>
+        <v>0.3440983333333333</v>
       </c>
       <c r="H11">
-        <v>5.610905000000001</v>
+        <v>1.032295</v>
       </c>
       <c r="I11">
-        <v>0.5431360515441066</v>
+        <v>0.09560560325825622</v>
       </c>
       <c r="J11">
-        <v>0.5431360515441066</v>
+        <v>0.09560560325825622</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>49.462564</v>
       </c>
       <c r="O11">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P11">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q11">
-        <v>30.83663862893556</v>
+        <v>5.673328611597778</v>
       </c>
       <c r="R11">
-        <v>277.52974766042</v>
+        <v>51.05995750438</v>
       </c>
       <c r="S11">
-        <v>0.1882810628092973</v>
+        <v>0.03356152993706461</v>
       </c>
       <c r="T11">
-        <v>0.1882810628092973</v>
+        <v>0.03356152993706462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.870301666666667</v>
+        <v>0.3440983333333333</v>
       </c>
       <c r="H12">
-        <v>5.610905000000001</v>
+        <v>1.032295</v>
       </c>
       <c r="I12">
-        <v>0.5431360515441066</v>
+        <v>0.09560560325825622</v>
       </c>
       <c r="J12">
-        <v>0.5431360515441066</v>
+        <v>0.09560560325825622</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N12">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O12">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P12">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q12">
-        <v>6.98724441065278</v>
+        <v>1.880348282388889</v>
       </c>
       <c r="R12">
-        <v>62.88519969587502</v>
+        <v>16.9231345415</v>
       </c>
       <c r="S12">
-        <v>0.04266242568058524</v>
+        <v>0.01112351663228085</v>
       </c>
       <c r="T12">
-        <v>0.04266242568058524</v>
+        <v>0.01112351663228085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.3440983333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.032295</v>
+      </c>
+      <c r="I13">
+        <v>0.09560560325825622</v>
+      </c>
+      <c r="J13">
+        <v>0.09560560325825622</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.60745533333333</v>
+      </c>
+      <c r="N13">
+        <v>52.822366</v>
+      </c>
+      <c r="O13">
+        <v>0.3748863512527063</v>
+      </c>
+      <c r="P13">
+        <v>0.3748863512527063</v>
+      </c>
+      <c r="Q13">
+        <v>6.058696034441112</v>
+      </c>
+      <c r="R13">
+        <v>54.52826430997</v>
+      </c>
+      <c r="S13">
+        <v>0.03584123576480152</v>
+      </c>
+      <c r="T13">
+        <v>0.03584123576480153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.926427333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.779282</v>
+      </c>
+      <c r="I14">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="J14">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.407905</v>
+      </c>
+      <c r="N14">
+        <v>22.223715</v>
+      </c>
+      <c r="O14">
+        <v>0.1577242380174723</v>
+      </c>
+      <c r="P14">
+        <v>0.1577242380174723</v>
+      </c>
+      <c r="Q14">
+        <v>14.27079067473667</v>
+      </c>
+      <c r="R14">
+        <v>128.43711607263</v>
+      </c>
+      <c r="S14">
+        <v>0.08442126329094671</v>
+      </c>
+      <c r="T14">
+        <v>0.08442126329094672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.926427333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.779282</v>
+      </c>
+      <c r="I15">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="J15">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.48752133333333</v>
+      </c>
+      <c r="N15">
+        <v>49.462564</v>
+      </c>
+      <c r="O15">
+        <v>0.3510414535684271</v>
+      </c>
+      <c r="P15">
+        <v>0.3510414535684271</v>
+      </c>
+      <c r="Q15">
+        <v>31.76201175544978</v>
+      </c>
+      <c r="R15">
+        <v>285.858105799048</v>
+      </c>
+      <c r="S15">
+        <v>0.1878935244845114</v>
+      </c>
+      <c r="T15">
+        <v>0.1878935244845114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>1.870301666666667</v>
-      </c>
-      <c r="H13">
-        <v>5.610905000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.5431360515441066</v>
-      </c>
-      <c r="J13">
-        <v>0.5431360515441066</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.62376966666667</v>
-      </c>
-      <c r="N13">
-        <v>55.871309</v>
-      </c>
-      <c r="O13">
-        <v>0.391570739865005</v>
-      </c>
-      <c r="P13">
-        <v>0.391570739865005</v>
-      </c>
-      <c r="Q13">
-        <v>34.83206744718279</v>
-      </c>
-      <c r="R13">
-        <v>313.488607024645</v>
-      </c>
-      <c r="S13">
-        <v>0.2126761855504833</v>
-      </c>
-      <c r="T13">
-        <v>0.2126761855504833</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.926427333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.779282</v>
+      </c>
+      <c r="I16">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="J16">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.464566666666666</v>
+      </c>
+      <c r="N16">
+        <v>16.3937</v>
+      </c>
+      <c r="O16">
+        <v>0.1163479571613943</v>
+      </c>
+      <c r="P16">
+        <v>0.1163479571613943</v>
+      </c>
+      <c r="Q16">
+        <v>10.52709059148889</v>
+      </c>
+      <c r="R16">
+        <v>94.7438153234</v>
+      </c>
+      <c r="S16">
+        <v>0.0622747755725266</v>
+      </c>
+      <c r="T16">
+        <v>0.06227477557252661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.926427333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.779282</v>
+      </c>
+      <c r="I17">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="J17">
+        <v>0.5352459733017999</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.60745533333333</v>
+      </c>
+      <c r="N17">
+        <v>52.822366</v>
+      </c>
+      <c r="O17">
+        <v>0.3748863512527063</v>
+      </c>
+      <c r="P17">
+        <v>0.3748863512527063</v>
+      </c>
+      <c r="Q17">
+        <v>33.91948322457912</v>
+      </c>
+      <c r="R17">
+        <v>305.275349021212</v>
+      </c>
+      <c r="S17">
+        <v>0.2006564099538152</v>
+      </c>
+      <c r="T17">
+        <v>0.2006564099538152</v>
       </c>
     </row>
   </sheetData>
